--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -61,256 +61,247 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>old</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>cream</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>big</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>used</t>
@@ -677,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -796,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.303030303030303</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2868217054263566</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1513513513513514</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8452012383900929</v>
+        <v>0.8671875</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>111</v>
       </c>
       <c r="M6">
-        <v>546</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +937,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +963,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8359133126934984</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1024,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1041,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7056277056277056</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.704225352112676</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -1120,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1119,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.688135593220339</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L14">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M14">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1154,13 +1145,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6857142857142857</v>
+        <v>0.6460674157303371</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>805</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>805</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1180,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1206,13 +1197,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6615384615384615</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1232,13 +1223,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6324237560192616</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L18">
-        <v>788</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>788</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>458</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1258,13 +1249,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1284,13 +1275,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6176470588235294</v>
+        <v>0.609375</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1336,13 +1327,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5964912280701754</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1362,13 +1353,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5918367346938775</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1388,13 +1379,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5897435897435898</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1440,13 +1431,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5828571428571429</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L26">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1466,13 +1457,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5769230769230769</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1492,13 +1483,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1518,13 +1509,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5641025641025641</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1544,13 +1535,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1570,13 +1561,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5470085470085471</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M31">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1596,13 +1587,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1622,13 +1613,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5301204819277109</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1648,13 +1639,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5149700598802395</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L34">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M34">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1674,13 +1665,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.5098039215686274</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1692,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1700,13 +1691,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4918032786885246</v>
+        <v>0.44</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1726,13 +1717,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4887218045112782</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L37">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1744,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1752,13 +1743,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4879518072289157</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L38">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1770,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1778,13 +1769,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4736842105263158</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1796,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1804,25 +1795,25 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>36</v>
-      </c>
-      <c r="M40">
-        <v>36</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1830,13 +1821,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.4444444444444444</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1848,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1856,13 +1847,13 @@
         <v>52</v>
       </c>
       <c r="K42">
-        <v>0.41</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1874,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1882,13 +1873,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.392156862745098</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L43">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1900,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>248</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1908,13 +1899,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3815789473684211</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1926,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1934,13 +1925,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3618677042801556</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L45">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="M45">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1952,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1960,13 +1951,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3603603603603603</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1978,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1986,13 +1977,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3458646616541353</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2004,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2012,13 +2003,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3452054794520548</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L48">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2030,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>478</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2038,13 +2029,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.316546762589928</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2056,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>95</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2064,13 +2055,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2870813397129187</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L50">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2082,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2090,13 +2081,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2777777777777778</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2108,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2116,13 +2107,13 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2772277227722773</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2134,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2142,13 +2133,13 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2744886975242196</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L53">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="M53">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2160,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>674</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2168,7 +2159,7 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2702702702702703</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L54">
         <v>30</v>
@@ -2186,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2194,13 +2185,13 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2619047619047619</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2212,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2220,13 +2211,13 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2516556291390729</v>
+        <v>0.2572658772874058</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2238,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>113</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2246,13 +2237,13 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2476190476190476</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2264,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2272,13 +2263,13 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2473118279569892</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2290,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2298,13 +2289,13 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2385321100917431</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2316,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2324,25 +2315,25 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.2321428571428572</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M60">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>86</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2350,13 +2341,13 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2147651006711409</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2368,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2376,13 +2367,13 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2136752136752137</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2394,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>92</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2402,13 +2393,13 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.213166144200627</v>
+        <v>0.190537084398977</v>
       </c>
       <c r="L63">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="M63">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2420,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>251</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2428,13 +2419,13 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1960264900662252</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L64">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2446,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>607</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2454,13 +2445,13 @@
         <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1885245901639344</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2472,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2480,25 +2471,25 @@
         <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1856594110115237</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L66">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="M66">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>636</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2506,25 +2497,25 @@
         <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1682926829268293</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L67">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>341</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2532,13 +2523,13 @@
         <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1515151515151515</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2550,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2558,13 +2549,13 @@
         <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1512915129151292</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="L69">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2576,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2584,25 +2575,25 @@
         <v>80</v>
       </c>
       <c r="K70">
-        <v>0.145945945945946</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="L70">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M70">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2610,25 +2601,25 @@
         <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1419753086419753</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>139</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2636,13 +2627,13 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1407407407407407</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2654,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>232</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2662,13 +2653,13 @@
         <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1374570446735395</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L73">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M73">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2680,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>251</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2688,25 +2679,25 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1363636363636364</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L74">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M74">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>380</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2714,13 +2705,13 @@
         <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1355932203389831</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2732,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>153</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2740,13 +2731,13 @@
         <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1341463414634146</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2758,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2766,13 +2757,13 @@
         <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1330049261083744</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L77">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2784,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2792,13 +2783,13 @@
         <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1302521008403361</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M78">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2810,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>207</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2818,25 +2809,25 @@
         <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1207729468599034</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2844,13 +2835,13 @@
         <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1193317422434367</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L80">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2862,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>369</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2870,25 +2861,25 @@
         <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1162280701754386</v>
+        <v>0.07951356407857811</v>
       </c>
       <c r="L81">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M81">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>403</v>
+        <v>984</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2896,25 +2887,25 @@
         <v>92</v>
       </c>
       <c r="K82">
-        <v>0.109038737446198</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L82">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M82">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2922,13 +2913,13 @@
         <v>93</v>
       </c>
       <c r="K83">
-        <v>0.09677419354838709</v>
+        <v>0.06826568265682657</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -2940,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>224</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2948,13 +2939,13 @@
         <v>94</v>
       </c>
       <c r="K84">
-        <v>0.08743169398907104</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M84">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -2966,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2974,13 +2965,13 @@
         <v>95</v>
       </c>
       <c r="K85">
-        <v>0.0830223880597015</v>
+        <v>0.06038647342995169</v>
       </c>
       <c r="L85">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="M85">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -2992,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>983</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3000,7 +2991,7 @@
         <v>96</v>
       </c>
       <c r="K86">
-        <v>0.06345177664974619</v>
+        <v>0.04789272030651341</v>
       </c>
       <c r="L86">
         <v>25</v>
@@ -3018,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>369</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3026,103 +3017,25 @@
         <v>97</v>
       </c>
       <c r="K87">
-        <v>0.06067961165048544</v>
+        <v>0.04152249134948097</v>
       </c>
       <c r="L87">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M87">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N87">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K88">
-        <v>0.05914972273567468</v>
-      </c>
-      <c r="L88">
-        <v>32</v>
-      </c>
-      <c r="M88">
-        <v>33</v>
-      </c>
-      <c r="N88">
-        <v>0.97</v>
-      </c>
-      <c r="O88">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K89">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="L89">
-        <v>27</v>
-      </c>
-      <c r="M89">
-        <v>27</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90">
-        <v>0.04329004329004329</v>
-      </c>
-      <c r="L90">
-        <v>50</v>
-      </c>
-      <c r="M90">
-        <v>52</v>
-      </c>
-      <c r="N90">
-        <v>0.96</v>
-      </c>
-      <c r="O90">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
